--- a/SP500_2019-2022.xlsx
+++ b/SP500_2019-2022.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aqilz\Kuliah\Sem 6\ARWlLan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unairacid-my.sharepoint.com/personal/mohamad_david_hermawan-2020_fst_drive_unair_ac_id/Documents/Dokumen/Kuliah/Semester 6/ARW Lan/Kelompok/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D1E487B-32BC-4654-978A-E85996FDCE36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{0D1E487B-32BC-4654-978A-E85996FDCE36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{141D02F7-F593-465B-9F33-00495A8F0CB0}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{54C4F7DA-D25D-494A-A10C-BD9EC3893D48}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{54C4F7DA-D25D-494A-A10C-BD9EC3893D48}"/>
   </bookViews>
   <sheets>
     <sheet name="2019-2022_Weekly" sheetId="6" r:id="rId1"/>
@@ -156,12 +156,12 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -297,7 +297,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -595,19 +595,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAB365EF-EEE1-4122-B89C-7BD49CB36170}">
   <dimension ref="A1:E211"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -624,908 +624,908 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="9">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>43469</v>
+      </c>
+      <c r="B2">
+        <v>2476.96</v>
+      </c>
+      <c r="C2">
+        <v>2538.0700000000002</v>
+      </c>
+      <c r="D2">
+        <v>2443.96</v>
+      </c>
+      <c r="E2">
+        <v>2531.94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
         <v>43476</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B3" s="7">
         <v>2535.61</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C3" s="7">
         <v>2597.8200000000002</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D3" s="7">
         <v>2524.56</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E3" s="7">
         <v>2596.2600000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="8">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
         <v>43483</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B4" s="6">
         <v>2580.31</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C4" s="6">
         <v>2675.47</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D4" s="6">
         <v>2570.41</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E4" s="6">
         <v>2670.71</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="9">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
         <v>43490</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B5" s="7">
         <v>2657.88</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C5" s="7">
         <v>2672.38</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D5" s="7">
         <v>2612.86</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E5" s="7">
         <v>2664.76</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
         <v>43497</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B6" s="6">
         <v>2644.97</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C6" s="6">
         <v>2716.66</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D6" s="6">
         <v>2624.06</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E6" s="6">
         <v>2706.53</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="9">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
         <v>43504</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B7" s="7">
         <v>2706.49</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C7" s="7">
         <v>2738.98</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D7" s="7">
         <v>2681.83</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E7" s="7">
         <v>2707.88</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="8">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
         <v>43511</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B8" s="6">
         <v>2712.4</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C8" s="6">
         <v>2775.66</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D8" s="6">
         <v>2703.79</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E8" s="6">
         <v>2775.6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="9">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
         <v>43518</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B9" s="7">
         <v>2769.28</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C9" s="7">
         <v>2794.2</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D9" s="7">
         <v>2764.55</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E9" s="7">
         <v>2792.67</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="8">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
         <v>43525</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B10" s="6">
         <v>2804.35</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C10" s="6">
         <v>2813.49</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D10" s="6">
         <v>2775.13</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E10" s="6">
         <v>2803.69</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="9">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
         <v>43532</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B11" s="7">
         <v>2814.37</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C11" s="7">
         <v>2816.88</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D11" s="7">
         <v>2722.27</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E11" s="7">
         <v>2743.07</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
         <v>43539</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B12" s="6">
         <v>2747.61</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C12" s="6">
         <v>2830.73</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D12" s="6">
         <v>2747.61</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E12" s="6">
         <v>2822.48</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="9">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
         <v>43546</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B13" s="7">
         <v>2822.61</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C13" s="7">
         <v>2860.31</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D13" s="7">
         <v>2800.47</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E13" s="7">
         <v>2800.71</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="8">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
         <v>43553</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B14" s="6">
         <v>2796.01</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C14" s="6">
         <v>2836.03</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D14" s="6">
         <v>2785.02</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E14" s="6">
         <v>2834.4</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="9">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
         <v>43560</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B15" s="7">
         <v>2848.63</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C15" s="7">
         <v>2893.24</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D15" s="7">
         <v>2848.63</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E15" s="7">
         <v>2892.74</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="8">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
         <v>43567</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B16" s="6">
         <v>2888.46</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C16" s="6">
         <v>2910.54</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D16" s="6">
         <v>2873.33</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E16" s="6">
         <v>2907.41</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="9">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
         <v>43573</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B17" s="7">
         <v>2908.32</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C17" s="7">
         <v>2918</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D17" s="7">
         <v>2891.9</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E17" s="7">
         <v>2905.03</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="8">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
         <v>43581</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B18" s="6">
         <v>2898.78</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C18" s="6">
         <v>2939.88</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D18" s="6">
         <v>2896.35</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E18" s="6">
         <v>2939.88</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="9">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
         <v>43588</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B19" s="7">
         <v>2940.58</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C19" s="7">
         <v>2954.13</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D19" s="7">
         <v>2900.5</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E19" s="7">
         <v>2945.64</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="8">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
         <v>43595</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B20" s="6">
         <v>2908.89</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C20" s="6">
         <v>2937.32</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D20" s="6">
         <v>2825.39</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E20" s="6">
         <v>2881.4</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="9">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
         <v>43602</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B21" s="7">
         <v>2840.19</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C21" s="7">
         <v>2892.15</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D21" s="7">
         <v>2801.43</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E21" s="7">
         <v>2859.53</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="8">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
         <v>43609</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B22" s="6">
         <v>2841.94</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C22" s="6">
         <v>2868.88</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D22" s="6">
         <v>2805.49</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E22" s="6">
         <v>2826.06</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="9">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
         <v>43616</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B23" s="7">
         <v>2830.03</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C23" s="7">
         <v>2840.51</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D23" s="7">
         <v>2750.52</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E23" s="7">
         <v>2752.06</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="8">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
         <v>43623</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B24" s="6">
         <v>2751.53</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C24" s="6">
         <v>2884.97</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D24" s="6">
         <v>2728.81</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E24" s="6">
         <v>2873.34</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="9">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
         <v>43630</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B25" s="7">
         <v>2885.83</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C25" s="7">
         <v>2910.61</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D25" s="7">
         <v>2874.68</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E25" s="7">
         <v>2886.98</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="8">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
         <v>43637</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B26" s="6">
         <v>2889.75</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C26" s="6">
         <v>2964.15</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D26" s="6">
         <v>2887.3</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E26" s="6">
         <v>2950.46</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="9">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="9">
         <v>43644</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B27" s="7">
         <v>2951.42</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C27" s="7">
         <v>2954.92</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D27" s="7">
         <v>2912.99</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E27" s="7">
         <v>2941.76</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="8">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="8">
         <v>43651</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B28" s="6">
         <v>2971.41</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C28" s="6">
         <v>2995.84</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D28" s="6">
         <v>2952.22</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E28" s="6">
         <v>2990.41</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="9">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="9">
         <v>43658</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B29" s="7">
         <v>2979.77</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C29" s="7">
         <v>3013.92</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D29" s="7">
         <v>2963.44</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E29" s="7">
         <v>3013.77</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="8">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="8">
         <v>43665</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B30" s="6">
         <v>3017.8</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C30" s="6">
         <v>3017.8</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D30" s="6">
         <v>2973.09</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E30" s="6">
         <v>2976.61</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="9">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="9">
         <v>43672</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B31" s="7">
         <v>2981.93</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C31" s="7">
         <v>3027.98</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D31" s="7">
         <v>2976.65</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E31" s="7">
         <v>3025.86</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="8">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="8">
         <v>43679</v>
       </c>
-      <c r="B31" s="6">
+      <c r="B32" s="6">
         <v>3024.47</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C32" s="6">
         <v>3025.61</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D32" s="6">
         <v>2914.11</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E32" s="6">
         <v>2932.05</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="9">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="9">
         <v>43686</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B33" s="7">
         <v>2898.07</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C33" s="7">
         <v>2938.72</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D33" s="7">
         <v>2822.12</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E33" s="7">
         <v>2918.65</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="8">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="8">
         <v>43693</v>
       </c>
-      <c r="B33" s="6">
+      <c r="B34" s="6">
         <v>2907.07</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C34" s="6">
         <v>2943.31</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D34" s="6">
         <v>2825.51</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E34" s="6">
         <v>2888.68</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="9">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="9">
         <v>43700</v>
       </c>
-      <c r="B34" s="7">
+      <c r="B35" s="7">
         <v>2913.48</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C35" s="7">
         <v>2939.08</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D35" s="7">
         <v>2834.97</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E35" s="7">
         <v>2847.11</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="8">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="8">
         <v>43707</v>
       </c>
-      <c r="B35" s="6">
+      <c r="B36" s="6">
         <v>2866.7</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C36" s="6">
         <v>2940.43</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D36" s="6">
         <v>2853.05</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E36" s="6">
         <v>2926.46</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="9">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="9">
         <v>43714</v>
       </c>
-      <c r="B36" s="7">
+      <c r="B37" s="7">
         <v>2909.01</v>
       </c>
-      <c r="C36" s="7">
+      <c r="C37" s="7">
         <v>2985.86</v>
       </c>
-      <c r="D36" s="7">
+      <c r="D37" s="7">
         <v>2891.85</v>
       </c>
-      <c r="E36" s="7">
+      <c r="E37" s="7">
         <v>2978.71</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="8">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="8">
         <v>43721</v>
       </c>
-      <c r="B37" s="6">
+      <c r="B38" s="6">
         <v>2988.43</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C38" s="6">
         <v>3020.74</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D38" s="6">
         <v>2957.01</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E38" s="6">
         <v>3007.39</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="9">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="9">
         <v>43728</v>
       </c>
-      <c r="B38" s="7">
+      <c r="B39" s="7">
         <v>2996.41</v>
       </c>
-      <c r="C38" s="7">
+      <c r="C39" s="7">
         <v>3021.99</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D39" s="7">
         <v>2978.57</v>
       </c>
-      <c r="E38" s="7">
+      <c r="E39" s="7">
         <v>2992.07</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="8">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="8">
         <v>43735</v>
       </c>
-      <c r="B39" s="6">
+      <c r="B40" s="6">
         <v>2983.5</v>
       </c>
-      <c r="C39" s="6">
+      <c r="C40" s="6">
         <v>3007.98</v>
       </c>
-      <c r="D39" s="6">
+      <c r="D40" s="6">
         <v>2945.53</v>
       </c>
-      <c r="E39" s="6">
+      <c r="E40" s="6">
         <v>2961.79</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="9">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="9">
         <v>43742</v>
       </c>
-      <c r="B40" s="7">
+      <c r="B41" s="7">
         <v>2967.07</v>
       </c>
-      <c r="C40" s="7">
+      <c r="C41" s="7">
         <v>2992.53</v>
       </c>
-      <c r="D40" s="7">
+      <c r="D41" s="7">
         <v>2855.94</v>
       </c>
-      <c r="E40" s="7">
+      <c r="E41" s="7">
         <v>2952.01</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="8">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="8">
         <v>43749</v>
       </c>
-      <c r="B41" s="6">
+      <c r="B42" s="6">
         <v>2944.23</v>
       </c>
-      <c r="C41" s="6">
+      <c r="C42" s="6">
         <v>2993.28</v>
       </c>
-      <c r="D41" s="6">
+      <c r="D42" s="6">
         <v>2892.66</v>
       </c>
-      <c r="E41" s="6">
+      <c r="E42" s="6">
         <v>2970.27</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="9">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="9">
         <v>43756</v>
       </c>
-      <c r="B42" s="7">
+      <c r="B43" s="7">
         <v>2965.81</v>
       </c>
-      <c r="C42" s="7">
+      <c r="C43" s="7">
         <v>3008.29</v>
       </c>
-      <c r="D42" s="7">
+      <c r="D43" s="7">
         <v>2962.94</v>
       </c>
-      <c r="E42" s="7">
+      <c r="E43" s="7">
         <v>2986.2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="8">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="8">
         <v>43763</v>
       </c>
-      <c r="B43" s="6">
+      <c r="B44" s="6">
         <v>2996.48</v>
       </c>
-      <c r="C43" s="6">
+      <c r="C44" s="6">
         <v>3027.39</v>
       </c>
-      <c r="D43" s="6">
+      <c r="D44" s="6">
         <v>2991.21</v>
       </c>
-      <c r="E43" s="6">
+      <c r="E44" s="6">
         <v>3022.55</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="9">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="9">
         <v>43770</v>
       </c>
-      <c r="B44" s="7">
+      <c r="B45" s="7">
         <v>3032.12</v>
       </c>
-      <c r="C44" s="7">
+      <c r="C45" s="7">
         <v>3066.95</v>
       </c>
-      <c r="D44" s="7">
+      <c r="D45" s="7">
         <v>3023.19</v>
       </c>
-      <c r="E44" s="7">
+      <c r="E45" s="7">
         <v>3066.91</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="8">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="8">
         <v>43777</v>
       </c>
-      <c r="B45" s="6">
+      <c r="B46" s="6">
         <v>3078.96</v>
       </c>
-      <c r="C45" s="6">
+      <c r="C46" s="6">
         <v>3097.77</v>
       </c>
-      <c r="D45" s="6">
+      <c r="D46" s="6">
         <v>3065.89</v>
       </c>
-      <c r="E45" s="6">
+      <c r="E46" s="6">
         <v>3093.08</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="9">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="9">
         <v>43784</v>
       </c>
-      <c r="B46" s="7">
+      <c r="B47" s="7">
         <v>3080.33</v>
       </c>
-      <c r="C46" s="7">
+      <c r="C47" s="7">
         <v>3120.46</v>
       </c>
-      <c r="D46" s="7">
+      <c r="D47" s="7">
         <v>3075.82</v>
       </c>
-      <c r="E46" s="7">
+      <c r="E47" s="7">
         <v>3120.46</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="8">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="8">
         <v>43791</v>
       </c>
-      <c r="B47" s="6">
+      <c r="B48" s="6">
         <v>3117.91</v>
       </c>
-      <c r="C47" s="6">
+      <c r="C48" s="6">
         <v>3127.64</v>
       </c>
-      <c r="D47" s="6">
+      <c r="D48" s="6">
         <v>3091.41</v>
       </c>
-      <c r="E47" s="6">
+      <c r="E48" s="6">
         <v>3110.29</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="9">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="9">
         <v>43798</v>
       </c>
-      <c r="B48" s="7">
+      <c r="B49" s="7">
         <v>3117.44</v>
       </c>
-      <c r="C48" s="7">
+      <c r="C49" s="7">
         <v>3154.26</v>
       </c>
-      <c r="D48" s="7">
+      <c r="D49" s="7">
         <v>3117.44</v>
       </c>
-      <c r="E48" s="7">
+      <c r="E49" s="7">
         <v>3140.98</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="8">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="8">
         <v>43805</v>
       </c>
-      <c r="B49" s="6">
+      <c r="B50" s="6">
         <v>3143.85</v>
       </c>
-      <c r="C49" s="6">
+      <c r="C50" s="6">
         <v>3150.6</v>
       </c>
-      <c r="D49" s="6">
+      <c r="D50" s="6">
         <v>3070.33</v>
       </c>
-      <c r="E49" s="6">
+      <c r="E50" s="6">
         <v>3145.91</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="9">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="9">
         <v>43812</v>
       </c>
-      <c r="B50" s="7">
+      <c r="B51" s="7">
         <v>3141.86</v>
       </c>
-      <c r="C50" s="7">
+      <c r="C51" s="7">
         <v>3182.68</v>
       </c>
-      <c r="D50" s="7">
+      <c r="D51" s="7">
         <v>3126.09</v>
       </c>
-      <c r="E50" s="7">
+      <c r="E51" s="7">
         <v>3168.8</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="8">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="8">
         <v>43819</v>
       </c>
-      <c r="B51" s="6">
+      <c r="B52" s="6">
         <v>3183.63</v>
       </c>
-      <c r="C51" s="6">
+      <c r="C52" s="6">
         <v>3225.65</v>
       </c>
-      <c r="D51" s="6">
+      <c r="D52" s="6">
         <v>3183.63</v>
       </c>
-      <c r="E51" s="6">
+      <c r="E52" s="6">
         <v>3221.22</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="9">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="9">
         <v>43826</v>
       </c>
-      <c r="B52" s="7">
+      <c r="B53" s="7">
         <v>3226.05</v>
       </c>
-      <c r="C52" s="7">
+      <c r="C53" s="7">
         <v>3247.93</v>
       </c>
-      <c r="D52" s="7">
+      <c r="D53" s="7">
         <v>3220.51</v>
       </c>
-      <c r="E52" s="7">
+      <c r="E53" s="7">
         <v>3240.02</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="10">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="10">
         <v>43830</v>
       </c>
-      <c r="B53" s="11">
+      <c r="B54" s="11">
         <v>3240.09</v>
       </c>
-      <c r="C53" s="11">
+      <c r="C54" s="11">
         <v>3240.92</v>
       </c>
-      <c r="D53" s="11">
+      <c r="D54" s="11">
         <v>3212.03</v>
       </c>
-      <c r="E53" s="11">
+      <c r="E54" s="11">
         <v>3230.78</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="3">
-        <v>43469</v>
-      </c>
-      <c r="B54">
-        <v>2476.96</v>
-      </c>
-      <c r="C54">
-        <v>2538.0700000000002</v>
-      </c>
-      <c r="D54">
-        <v>2443.96</v>
-      </c>
-      <c r="E54">
-        <v>2531.94</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>43833</v>
       </c>
@@ -1542,7 +1542,7 @@
         <v>3234.85</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>43840</v>
       </c>
@@ -1559,7 +1559,7 @@
         <v>3265.35</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>43847</v>
       </c>
@@ -1576,7 +1576,7 @@
         <v>3329.62</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>43854</v>
       </c>
@@ -1593,7 +1593,7 @@
         <v>3295.47</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>43861</v>
       </c>
@@ -1610,7 +1610,7 @@
         <v>3225.52</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>43868</v>
       </c>
@@ -1627,7 +1627,7 @@
         <v>3327.71</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>43875</v>
       </c>
@@ -1644,7 +1644,7 @@
         <v>3380.16</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>43882</v>
       </c>
@@ -1661,7 +1661,7 @@
         <v>3337.75</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>43889</v>
       </c>
@@ -1678,7 +1678,7 @@
         <v>2954.22</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>43896</v>
       </c>
@@ -1695,7 +1695,7 @@
         <v>2972.37</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>43903</v>
       </c>
@@ -1712,7 +1712,7 @@
         <v>2711.02</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>43910</v>
       </c>
@@ -1729,7 +1729,7 @@
         <v>2304.92</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>43917</v>
       </c>
@@ -1746,7 +1746,7 @@
         <v>2541.4699999999998</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>43924</v>
       </c>
@@ -1763,7 +1763,7 @@
         <v>2488.65</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>43930</v>
       </c>
@@ -1780,7 +1780,7 @@
         <v>2789.82</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>43938</v>
       </c>
@@ -1797,7 +1797,7 @@
         <v>2874.56</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>43945</v>
       </c>
@@ -1814,7 +1814,7 @@
         <v>2836.74</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>43952</v>
       </c>
@@ -1831,7 +1831,7 @@
         <v>2830.71</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>43959</v>
       </c>
@@ -1848,7 +1848,7 @@
         <v>2929.8</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>43966</v>
       </c>
@@ -1865,7 +1865,7 @@
         <v>2863.7</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>43973</v>
       </c>
@@ -1882,7 +1882,7 @@
         <v>2955.45</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>43980</v>
       </c>
@@ -1899,7 +1899,7 @@
         <v>3044.31</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>43987</v>
       </c>
@@ -1916,7 +1916,7 @@
         <v>3193.93</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>43994</v>
       </c>
@@ -1933,7 +1933,7 @@
         <v>3041.31</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>44001</v>
       </c>
@@ -1950,7 +1950,7 @@
         <v>3097.74</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>44008</v>
       </c>
@@ -1967,7 +1967,7 @@
         <v>3009.05</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>44014</v>
       </c>
@@ -1984,7 +1984,7 @@
         <v>3130.01</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>44022</v>
       </c>
@@ -2001,7 +2001,7 @@
         <v>3185.04</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>44029</v>
       </c>
@@ -2018,7 +2018,7 @@
         <v>3224.73</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>44036</v>
       </c>
@@ -2035,7 +2035,7 @@
         <v>3215.63</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>44043</v>
       </c>
@@ -2052,7 +2052,7 @@
         <v>3271.12</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>44050</v>
       </c>
@@ -2069,7 +2069,7 @@
         <v>3351.28</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>44057</v>
       </c>
@@ -2086,7 +2086,7 @@
         <v>3372.85</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>44064</v>
       </c>
@@ -2103,7 +2103,7 @@
         <v>3397.16</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>44071</v>
       </c>
@@ -2120,7 +2120,7 @@
         <v>3508.01</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>44078</v>
       </c>
@@ -2137,7 +2137,7 @@
         <v>3426.96</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>44085</v>
       </c>
@@ -2154,7 +2154,7 @@
         <v>3340.97</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>44092</v>
       </c>
@@ -2171,7 +2171,7 @@
         <v>3319.47</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>44099</v>
       </c>
@@ -2188,7 +2188,7 @@
         <v>3298.46</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>44106</v>
       </c>
@@ -2205,7 +2205,7 @@
         <v>3348.44</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>44113</v>
       </c>
@@ -2222,7 +2222,7 @@
         <v>3477.13</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>44120</v>
       </c>
@@ -2239,7 +2239,7 @@
         <v>3483.81</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>44127</v>
       </c>
@@ -2256,7 +2256,7 @@
         <v>3465.39</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>44134</v>
       </c>
@@ -2273,7 +2273,7 @@
         <v>3269.96</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>44141</v>
       </c>
@@ -2290,7 +2290,7 @@
         <v>3509.44</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>44148</v>
       </c>
@@ -2307,7 +2307,7 @@
         <v>3585.15</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>44155</v>
       </c>
@@ -2324,7 +2324,7 @@
         <v>3557.54</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>44162</v>
       </c>
@@ -2341,7 +2341,7 @@
         <v>3638.35</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>44169</v>
       </c>
@@ -2358,7 +2358,7 @@
         <v>3699.12</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>44176</v>
       </c>
@@ -2375,7 +2375,7 @@
         <v>3663.46</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>44183</v>
       </c>
@@ -2392,7 +2392,7 @@
         <v>3709.41</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>44189</v>
       </c>
@@ -2409,7 +2409,7 @@
         <v>3703.06</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>44196</v>
       </c>
@@ -2426,7 +2426,7 @@
         <v>3756.07</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>44204</v>
       </c>
@@ -2443,7 +2443,7 @@
         <v>3824.68</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <v>44211</v>
       </c>
@@ -2460,7 +2460,7 @@
         <v>3768.25</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>44218</v>
       </c>
@@ -2477,7 +2477,7 @@
         <v>3841.47</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>44225</v>
       </c>
@@ -2494,7 +2494,7 @@
         <v>3714.24</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <v>44232</v>
       </c>
@@ -2511,7 +2511,7 @@
         <v>3886.83</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <v>44239</v>
       </c>
@@ -2528,7 +2528,7 @@
         <v>3934.83</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>44246</v>
       </c>
@@ -2545,7 +2545,7 @@
         <v>3906.71</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <v>44253</v>
       </c>
@@ -2562,7 +2562,7 @@
         <v>3811.15</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>44260</v>
       </c>
@@ -2579,7 +2579,7 @@
         <v>3841.94</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
         <v>44267</v>
       </c>
@@ -2596,7 +2596,7 @@
         <v>3943.34</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
         <v>44274</v>
       </c>
@@ -2613,7 +2613,7 @@
         <v>3913.1</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <v>44281</v>
       </c>
@@ -2630,7 +2630,7 @@
         <v>3974.54</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <v>44287</v>
       </c>
@@ -2647,7 +2647,7 @@
         <v>4019.87</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <v>44295</v>
       </c>
@@ -2664,7 +2664,7 @@
         <v>4128.8</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <v>44302</v>
       </c>
@@ -2681,7 +2681,7 @@
         <v>4185.47</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <v>44309</v>
       </c>
@@ -2698,7 +2698,7 @@
         <v>4180.17</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
         <v>44316</v>
       </c>
@@ -2715,7 +2715,7 @@
         <v>4181.17</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
         <v>44323</v>
       </c>
@@ -2732,7 +2732,7 @@
         <v>4232.6000000000004</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
         <v>44330</v>
       </c>
@@ -2749,7 +2749,7 @@
         <v>4173.8500000000004</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
         <v>44337</v>
       </c>
@@ -2766,7 +2766,7 @@
         <v>4155.8599999999997</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
         <v>44344</v>
       </c>
@@ -2783,7 +2783,7 @@
         <v>4204.1099999999997</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
         <v>44351</v>
       </c>
@@ -2800,7 +2800,7 @@
         <v>4229.8900000000003</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
         <v>44358</v>
       </c>
@@ -2817,7 +2817,7 @@
         <v>4247.4399999999996</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
         <v>44365</v>
       </c>
@@ -2834,7 +2834,7 @@
         <v>4166.45</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
         <v>44372</v>
       </c>
@@ -2851,7 +2851,7 @@
         <v>4280.7</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
         <v>44379</v>
       </c>
@@ -2868,7 +2868,7 @@
         <v>4352.34</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
         <v>44386</v>
       </c>
@@ -2885,7 +2885,7 @@
         <v>4369.55</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
         <v>44393</v>
       </c>
@@ -2902,7 +2902,7 @@
         <v>4327.16</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
         <v>44400</v>
       </c>
@@ -2919,7 +2919,7 @@
         <v>4411.79</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
         <v>44407</v>
       </c>
@@ -2936,7 +2936,7 @@
         <v>4395.26</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
         <v>44414</v>
       </c>
@@ -2953,7 +2953,7 @@
         <v>4436.5200000000004</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
         <v>44421</v>
       </c>
@@ -2970,7 +2970,7 @@
         <v>4468</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="3">
         <v>44428</v>
       </c>
@@ -2987,7 +2987,7 @@
         <v>4441.67</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="3">
         <v>44435</v>
       </c>
@@ -3004,7 +3004,7 @@
         <v>4509.37</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
         <v>44442</v>
       </c>
@@ -3021,7 +3021,7 @@
         <v>4535.43</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="3">
         <v>44449</v>
       </c>
@@ -3038,7 +3038,7 @@
         <v>4458.58</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="3">
         <v>44456</v>
       </c>
@@ -3055,7 +3055,7 @@
         <v>4432.99</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="3">
         <v>44463</v>
       </c>
@@ -3072,7 +3072,7 @@
         <v>4455.4799999999996</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="3">
         <v>44470</v>
       </c>
@@ -3089,7 +3089,7 @@
         <v>4357.04</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="3">
         <v>44477</v>
       </c>
@@ -3106,7 +3106,7 @@
         <v>4391.34</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="3">
         <v>44484</v>
       </c>
@@ -3123,7 +3123,7 @@
         <v>4471.37</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="3">
         <v>44491</v>
       </c>
@@ -3140,7 +3140,7 @@
         <v>4544.8999999999996</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="3">
         <v>44498</v>
       </c>
@@ -3157,7 +3157,7 @@
         <v>4605.38</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="3">
         <v>44505</v>
       </c>
@@ -3174,7 +3174,7 @@
         <v>4697.53</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="3">
         <v>44512</v>
       </c>
@@ -3191,7 +3191,7 @@
         <v>4682.8500000000004</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="3">
         <v>44519</v>
       </c>
@@ -3208,7 +3208,7 @@
         <v>4697.96</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="3">
         <v>44526</v>
       </c>
@@ -3225,7 +3225,7 @@
         <v>4594.62</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="3">
         <v>44533</v>
       </c>
@@ -3242,7 +3242,7 @@
         <v>4538.43</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="3">
         <v>44540</v>
       </c>
@@ -3259,7 +3259,7 @@
         <v>4712.0200000000004</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="3">
         <v>44547</v>
       </c>
@@ -3276,7 +3276,7 @@
         <v>4620.6400000000003</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="3">
         <v>44553</v>
       </c>
@@ -3293,7 +3293,7 @@
         <v>4725.79</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="3">
         <v>44561</v>
       </c>
@@ -3310,7 +3310,7 @@
         <v>4766.18</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="3">
         <v>44568</v>
       </c>
@@ -3327,7 +3327,7 @@
         <v>4677.03</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="3">
         <v>44575</v>
       </c>
@@ -3344,7 +3344,7 @@
         <v>4662.8500000000004</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="3">
         <v>44582</v>
       </c>
@@ -3361,7 +3361,7 @@
         <v>4397.9399999999996</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="3">
         <v>44589</v>
       </c>
@@ -3378,7 +3378,7 @@
         <v>4431.8500000000004</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="3">
         <v>44596</v>
       </c>
@@ -3395,7 +3395,7 @@
         <v>4500.53</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="3">
         <v>44603</v>
       </c>
@@ -3412,7 +3412,7 @@
         <v>4418.6400000000003</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="3">
         <v>44610</v>
       </c>
@@ -3429,7 +3429,7 @@
         <v>4348.87</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="3">
         <v>44617</v>
       </c>
@@ -3446,7 +3446,7 @@
         <v>4384.6499999999996</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="3">
         <v>44624</v>
       </c>
@@ -3463,7 +3463,7 @@
         <v>4328.87</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="3">
         <v>44631</v>
       </c>
@@ -3480,7 +3480,7 @@
         <v>4204.3100000000004</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="3">
         <v>44638</v>
       </c>
@@ -3497,7 +3497,7 @@
         <v>4463.12</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="3">
         <v>44645</v>
       </c>
@@ -3514,7 +3514,7 @@
         <v>4543.0600000000004</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="3">
         <v>44652</v>
       </c>
@@ -3531,7 +3531,7 @@
         <v>4545.8599999999997</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="3">
         <v>44659</v>
       </c>
@@ -3548,7 +3548,7 @@
         <v>4488.28</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="3">
         <v>44665</v>
       </c>
@@ -3565,7 +3565,7 @@
         <v>4392.59</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="3">
         <v>44673</v>
       </c>
@@ -3582,7 +3582,7 @@
         <v>4271.78</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="3">
         <v>44680</v>
       </c>
@@ -3599,7 +3599,7 @@
         <v>4131.93</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="3">
         <v>44687</v>
       </c>
@@ -3616,7 +3616,7 @@
         <v>4123.34</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="3">
         <v>44694</v>
       </c>
@@ -3633,7 +3633,7 @@
         <v>4023.89</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="3">
         <v>44701</v>
       </c>
@@ -3650,7 +3650,7 @@
         <v>3901.36</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="3">
         <v>44708</v>
       </c>
@@ -3667,7 +3667,7 @@
         <v>4158.24</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="3">
         <v>44715</v>
       </c>
@@ -3684,7 +3684,7 @@
         <v>4108.54</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="3">
         <v>44722</v>
       </c>
@@ -3701,7 +3701,7 @@
         <v>3900.86</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="3">
         <v>44729</v>
       </c>
@@ -3718,7 +3718,7 @@
         <v>3674.84</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="3">
         <v>44736</v>
       </c>
@@ -3735,7 +3735,7 @@
         <v>3911.74</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="3">
         <v>44743</v>
       </c>
@@ -3752,7 +3752,7 @@
         <v>3825.33</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="3">
         <v>44750</v>
       </c>
@@ -3769,7 +3769,7 @@
         <v>3899.38</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="3">
         <v>44757</v>
       </c>
@@ -3786,7 +3786,7 @@
         <v>3863.16</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="3">
         <v>44764</v>
       </c>
@@ -3803,7 +3803,7 @@
         <v>3961.63</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="3">
         <v>44771</v>
       </c>
@@ -3820,7 +3820,7 @@
         <v>4130.29</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="3">
         <v>44778</v>
       </c>
@@ -3837,7 +3837,7 @@
         <v>4145.1899999999996</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="3">
         <v>44785</v>
       </c>
@@ -3854,7 +3854,7 @@
         <v>4280.1499999999996</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="3">
         <v>44792</v>
       </c>
@@ -3871,7 +3871,7 @@
         <v>4228.4799999999996</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="3">
         <v>44799</v>
       </c>
@@ -3888,7 +3888,7 @@
         <v>4057.66</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="3">
         <v>44806</v>
       </c>
@@ -3905,7 +3905,7 @@
         <v>3924.26</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="3">
         <v>44813</v>
       </c>
@@ -3922,7 +3922,7 @@
         <v>4067.36</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="3">
         <v>44820</v>
       </c>
@@ -3939,7 +3939,7 @@
         <v>3873.33</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="3">
         <v>44827</v>
       </c>
@@ -3956,7 +3956,7 @@
         <v>3693.23</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="3">
         <v>44834</v>
       </c>
@@ -3973,7 +3973,7 @@
         <v>3585.62</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="3">
         <v>44841</v>
       </c>
@@ -3990,7 +3990,7 @@
         <v>3639.66</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="3">
         <v>44848</v>
       </c>
@@ -4007,7 +4007,7 @@
         <v>3583.07</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="3">
         <v>44855</v>
       </c>
@@ -4024,7 +4024,7 @@
         <v>3752.75</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="3">
         <v>44862</v>
       </c>
@@ -4041,7 +4041,7 @@
         <v>3901.06</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="3">
         <v>44869</v>
       </c>
@@ -4058,7 +4058,7 @@
         <v>3770.55</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="3">
         <v>44876</v>
       </c>
@@ -4075,7 +4075,7 @@
         <v>3992.93</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="3">
         <v>44883</v>
       </c>
@@ -4092,7 +4092,7 @@
         <v>3965.34</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="3">
         <v>44890</v>
       </c>
@@ -4109,7 +4109,7 @@
         <v>4026.12</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="3">
         <v>44897</v>
       </c>
@@ -4126,7 +4126,7 @@
         <v>4071.7</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="3">
         <v>44904</v>
       </c>
@@ -4143,7 +4143,7 @@
         <v>3934.38</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="3">
         <v>44911</v>
       </c>
@@ -4160,7 +4160,7 @@
         <v>3852.36</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="3">
         <v>44918</v>
       </c>
@@ -4177,7 +4177,7 @@
         <v>3844.82</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="3">
         <v>44925</v>
       </c>
@@ -4211,14 +4211,14 @@
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4238,7 +4238,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>43833</v>
       </c>
@@ -4258,7 +4258,7 @@
         <v>10464254.522499999</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>43840</v>
       </c>
@@ -4278,7 +4278,7 @@
         <v>10662510.622499999</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>43847</v>
       </c>
@@ -4298,7 +4298,7 @@
         <v>11086369.3444</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>43854</v>
       </c>
@@ -4318,7 +4318,7 @@
         <v>10860122.520899998</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>43861</v>
       </c>
@@ -4338,7 +4338,7 @@
         <v>10403979.270399999</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>43868</v>
       </c>
@@ -4358,7 +4358,7 @@
         <v>11073653.8441</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>43875</v>
       </c>
@@ -4378,7 +4378,7 @@
         <v>11425481.625599999</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>43882</v>
       </c>
@@ -4398,7 +4398,7 @@
         <v>11140575.0625</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>43889</v>
       </c>
@@ -4418,7 +4418,7 @@
         <v>8727415.8083999995</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>43896</v>
       </c>
@@ -4438,7 +4438,7 @@
         <v>8834983.4168999996</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>43903</v>
       </c>
@@ -4458,7 +4458,7 @@
         <v>7349629.4403999997</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>43910</v>
       </c>
@@ -4478,7 +4478,7 @@
         <v>5312656.2064000005</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>43917</v>
       </c>
@@ -4498,7 +4498,7 @@
         <v>6459069.7608999992</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>43924</v>
       </c>
@@ -4518,7 +4518,7 @@
         <v>6193378.8224999998</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>43930</v>
       </c>
@@ -4538,7 +4538,7 @@
         <v>7783095.6324000005</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>43938</v>
       </c>
@@ -4558,7 +4558,7 @@
         <v>8263095.1935999999</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>43945</v>
       </c>
@@ -4578,7 +4578,7 @@
         <v>8047093.8275999986</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>43952</v>
       </c>
@@ -4598,7 +4598,7 @@
         <v>8012919.1041000001</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>43959</v>
       </c>
@@ -4618,7 +4618,7 @@
         <v>8583728.040000001</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>43966</v>
       </c>
@@ -4638,7 +4638,7 @@
         <v>8200777.6899999985</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>43973</v>
       </c>
@@ -4658,7 +4658,7 @@
         <v>8734684.7024999987</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>43980</v>
       </c>
@@ -4678,7 +4678,7 @@
         <v>9267823.3761</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>43987</v>
       </c>
@@ -4698,7 +4698,7 @@
         <v>10201188.844899999</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>43994</v>
       </c>
@@ -4718,7 +4718,7 @@
         <v>9249566.5161000006</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>44001</v>
       </c>
@@ -4738,7 +4738,7 @@
         <v>9595993.1075999979</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>44008</v>
       </c>
@@ -4758,7 +4758,7 @@
         <v>9054381.9025000017</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>44014</v>
       </c>
@@ -4778,7 +4778,7 @@
         <v>9796962.6001000013</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>44022</v>
       </c>
@@ -4798,7 +4798,7 @@
         <v>10144479.8016</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>44029</v>
       </c>
@@ -4818,7 +4818,7 @@
         <v>10398883.572900001</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>44036</v>
       </c>
@@ -4838,7 +4838,7 @@
         <v>10340276.2969</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>44043</v>
       </c>
@@ -4858,7 +4858,7 @@
         <v>10700226.054399999</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>44050</v>
       </c>
@@ -4878,7 +4878,7 @@
         <v>11231077.638400001</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>44057</v>
       </c>
@@ -4898,7 +4898,7 @@
         <v>11376117.122499999</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>44064</v>
       </c>
@@ -4918,7 +4918,7 @@
         <v>11540696.065599998</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>44071</v>
       </c>
@@ -4938,7 +4938,7 @@
         <v>12306134.160100002</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>44078</v>
       </c>
@@ -4958,7 +4958,7 @@
         <v>11744054.841600001</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>44085</v>
       </c>
@@ -4978,7 +4978,7 @@
         <v>11162080.540899999</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>44092</v>
       </c>
@@ -4998,7 +4998,7 @@
         <v>11018881.080899999</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>44099</v>
       </c>
@@ -5018,7 +5018,7 @@
         <v>10879838.3716</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>44106</v>
       </c>
@@ -5038,7 +5038,7 @@
         <v>11212050.433600001</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>44113</v>
       </c>
@@ -5058,7 +5058,7 @@
         <v>12090433.036900001</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>44120</v>
       </c>
@@ -5078,7 +5078,7 @@
         <v>12136932.1161</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>44127</v>
       </c>
@@ -5098,7 +5098,7 @@
         <v>12008927.8521</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>44134</v>
       </c>
@@ -5118,7 +5118,7 @@
         <v>10692638.4016</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>44141</v>
       </c>
@@ -5138,7 +5138,7 @@
         <v>12316169.113600001</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>44148</v>
       </c>
@@ -5158,7 +5158,7 @@
         <v>12853300.522500001</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>44155</v>
       </c>
@@ -5178,7 +5178,7 @@
         <v>12656090.851599999</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>44162</v>
       </c>
@@ -5198,7 +5198,7 @@
         <v>13237590.7225</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>44169</v>
       </c>
@@ -5218,7 +5218,7 @@
         <v>13683488.7744</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>44176</v>
       </c>
@@ -5238,7 +5238,7 @@
         <v>13420939.171600001</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>44183</v>
       </c>
@@ -5258,7 +5258,7 @@
         <v>13759722.548099998</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>44189</v>
       </c>
@@ -5278,7 +5278,7 @@
         <v>13712653.363599999</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>44196</v>
       </c>
@@ -5298,7 +5298,7 @@
         <v>14108061.844900001</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>44204</v>
       </c>
@@ -5318,7 +5318,7 @@
         <v>14628177.102399999</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>44211</v>
       </c>
@@ -5338,7 +5338,7 @@
         <v>14199708.0625</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>44218</v>
       </c>
@@ -5358,7 +5358,7 @@
         <v>14756891.760899998</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>44225</v>
       </c>
@@ -5378,7 +5378,7 @@
         <v>13795578.777599998</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>44232</v>
       </c>
@@ -5398,7 +5398,7 @@
         <v>15107447.448899999</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>44239</v>
       </c>
@@ -5418,7 +5418,7 @@
         <v>15482887.128899999</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>44246</v>
       </c>
@@ -5438,7 +5438,7 @@
         <v>15262383.0241</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>44253</v>
       </c>
@@ -5458,7 +5458,7 @@
         <v>14524864.3225</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>44260</v>
       </c>
@@ -5478,7 +5478,7 @@
         <v>14760502.9636</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>44267</v>
       </c>
@@ -5498,7 +5498,7 @@
         <v>15549930.355600001</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>44274</v>
       </c>
@@ -5518,7 +5518,7 @@
         <v>15312351.609999999</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>44281</v>
       </c>
@@ -5538,7 +5538,7 @@
         <v>15796968.2116</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>44287</v>
       </c>
@@ -5558,7 +5558,7 @@
         <v>16159354.8169</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>44295</v>
       </c>
@@ -5578,7 +5578,7 @@
         <v>17046989.440000001</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>44302</v>
       </c>
@@ -5598,7 +5598,7 @@
         <v>17518159.120900001</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>44309</v>
       </c>
@@ -5618,7 +5618,7 @@
         <v>17473821.2289</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>44316</v>
       </c>
@@ -5638,7 +5638,7 @@
         <v>17482182.5689</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>44323</v>
       </c>
@@ -5658,7 +5658,7 @@
         <v>17914902.760000002</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>44330</v>
       </c>
@@ -5678,7 +5678,7 @@
         <v>17421023.822500002</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>44337</v>
       </c>
@@ -5698,7 +5698,7 @@
         <v>17271172.339599997</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>44344</v>
       </c>
@@ -5718,7 +5718,7 @@
         <v>17674540.892099999</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>44351</v>
       </c>
@@ -5738,7 +5738,7 @@
         <v>17891969.412100002</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>44358</v>
       </c>
@@ -5758,7 +5758,7 @@
         <v>18040746.553599998</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>44365</v>
       </c>
@@ -5778,7 +5778,7 @@
         <v>17359305.602499999</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>44372</v>
       </c>
@@ -5798,7 +5798,7 @@
         <v>18324392.489999998</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>44379</v>
       </c>
@@ -5818,7 +5818,7 @@
         <v>18942863.4756</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>44386</v>
       </c>
@@ -5838,7 +5838,7 @@
         <v>19092967.202500001</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>44393</v>
       </c>
@@ -5858,7 +5858,7 @@
         <v>18724313.665599998</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>44400</v>
       </c>
@@ -5878,7 +5878,7 @@
         <v>19463891.004099999</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>44407</v>
       </c>
@@ -5898,7 +5898,7 @@
         <v>19318310.467600003</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>44414</v>
       </c>
@@ -5918,7 +5918,7 @@
         <v>19682709.710400004</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>44421</v>
       </c>
@@ -5938,7 +5938,7 @@
         <v>19963024</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>44428</v>
       </c>
@@ -5958,7 +5958,7 @@
         <v>19728432.388900001</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>44435</v>
       </c>
@@ -5978,7 +5978,7 @@
         <v>20334417.7969</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>44442</v>
       </c>
@@ -5998,7 +5998,7 @@
         <v>20570125.284900002</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>44449</v>
       </c>
@@ -6018,7 +6018,7 @@
         <v>19878935.6164</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>44456</v>
       </c>
@@ -6038,7 +6038,7 @@
         <v>19651400.340099998</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>44463</v>
       </c>
@@ -6058,7 +6058,7 @@
         <v>19851302.030399997</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>44470</v>
       </c>
@@ -6078,7 +6078,7 @@
         <v>18983797.5616</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>44477</v>
       </c>
@@ -6098,7 +6098,7 @@
         <v>19283866.9956</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>44484</v>
       </c>
@@ -6118,7 +6118,7 @@
         <v>19993149.676899999</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>44491</v>
       </c>
@@ -6138,7 +6138,7 @@
         <v>20656116.009999998</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>44498</v>
       </c>
@@ -6158,7 +6158,7 @@
         <v>21209524.944400001</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>44505</v>
       </c>
@@ -6178,7 +6178,7 @@
         <v>22066788.100899998</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>44512</v>
       </c>
@@ -6198,7 +6198,7 @@
         <v>21929084.122500002</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>44519</v>
       </c>
@@ -6218,7 +6218,7 @@
         <v>22070828.161600001</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>44526</v>
       </c>
@@ -6238,7 +6238,7 @@
         <v>21110532.944399998</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>44533</v>
       </c>
@@ -6258,7 +6258,7 @@
         <v>20597346.864900004</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>44540</v>
       </c>
@@ -6278,7 +6278,7 @@
         <v>22203132.480400003</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>44547</v>
       </c>
@@ -6298,7 +6298,7 @@
         <v>21350314.009600002</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>44553</v>
       </c>
@@ -6318,7 +6318,7 @@
         <v>22333091.1241</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>44561</v>
       </c>
@@ -6338,7 +6338,7 @@
         <v>22716471.792400002</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>44568</v>
       </c>
@@ -6358,7 +6358,7 @@
         <v>21874609.620899998</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>44575</v>
       </c>
@@ -6378,7 +6378,7 @@
         <v>21742170.122500002</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <v>44582</v>
       </c>
@@ -6398,7 +6398,7 @@
         <v>19341876.243599996</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>44589</v>
       </c>
@@ -6418,7 +6418,7 @@
         <v>19641294.422500003</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>44596</v>
       </c>
@@ -6438,7 +6438,7 @@
         <v>20254770.280899998</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <v>44603</v>
       </c>
@@ -6458,7 +6458,7 @@
         <v>19524379.449600004</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <v>44610</v>
       </c>
@@ -6478,7 +6478,7 @@
         <v>18912670.276899997</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>44617</v>
       </c>
@@ -6498,7 +6498,7 @@
         <v>19225155.622499999</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <v>44624</v>
       </c>
@@ -6518,7 +6518,7 @@
         <v>18739115.4769</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>44631</v>
       </c>
@@ -6538,7 +6538,7 @@
         <v>17676222.576100003</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
         <v>44638</v>
       </c>
@@ -6558,7 +6558,7 @@
         <v>19919440.134399999</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
         <v>44645</v>
       </c>
@@ -6578,7 +6578,7 @@
         <v>20639394.163600005</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <v>44652</v>
       </c>
@@ -6598,7 +6598,7 @@
         <v>20664843.139599998</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <v>44659</v>
       </c>
@@ -6618,7 +6618,7 @@
         <v>20144657.358399998</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <v>44665</v>
       </c>
@@ -6638,7 +6638,7 @@
         <v>19294846.908100002</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <v>44673</v>
       </c>
@@ -6658,7 +6658,7 @@
         <v>18248104.368399996</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <v>44680</v>
       </c>
@@ -6678,7 +6678,7 @@
         <v>17072845.524900001</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
         <v>44687</v>
       </c>
@@ -6698,7 +6698,7 @@
         <v>17001932.755600002</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
         <v>44694</v>
       </c>
@@ -6718,7 +6718,7 @@
         <v>16191690.732099999</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
         <v>44701</v>
       </c>
@@ -6738,7 +6738,7 @@
         <v>15220609.8496</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
         <v>44708</v>
       </c>
@@ -6758,7 +6758,7 @@
         <v>17290959.897599999</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
         <v>44715</v>
       </c>
@@ -6778,7 +6778,7 @@
         <v>16880100.931600001</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
         <v>44722</v>
       </c>
@@ -6798,7 +6798,7 @@
         <v>15216708.739600001</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
         <v>44729</v>
       </c>
@@ -6818,7 +6818,7 @@
         <v>13504449.025600001</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
         <v>44736</v>
       </c>
@@ -6838,7 +6838,7 @@
         <v>15301709.827599999</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
         <v>44743</v>
       </c>
@@ -6858,7 +6858,7 @@
         <v>14633149.608899999</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
         <v>44750</v>
       </c>
@@ -6878,7 +6878,7 @@
         <v>15205164.384400001</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
         <v>44757</v>
       </c>
@@ -6898,7 +6898,7 @@
         <v>14924005.1856</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
         <v>44764</v>
       </c>
@@ -6918,7 +6918,7 @@
         <v>15694512.256900001</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
         <v>44771</v>
       </c>
@@ -6938,7 +6938,7 @@
         <v>17059295.484099999</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
         <v>44778</v>
       </c>
@@ -6958,7 +6958,7 @@
         <v>17182600.136099998</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
         <v>44785</v>
       </c>
@@ -6978,7 +6978,7 @@
         <v>18319684.022499997</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
         <v>44792</v>
       </c>
@@ -6998,7 +6998,7 @@
         <v>17880043.110399995</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="3">
         <v>44799</v>
       </c>
@@ -7018,7 +7018,7 @@
         <v>16464604.6756</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="3">
         <v>44806</v>
       </c>
@@ -7038,7 +7038,7 @@
         <v>15399816.547600001</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
         <v>44813</v>
       </c>
@@ -7058,7 +7058,7 @@
         <v>16543417.369600002</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="3">
         <v>44820</v>
       </c>
@@ -7078,7 +7078,7 @@
         <v>15002685.288899999</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="3">
         <v>44827</v>
       </c>
@@ -7098,7 +7098,7 @@
         <v>13639947.832900001</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="3">
         <v>44834</v>
       </c>
@@ -7118,7 +7118,7 @@
         <v>12856670.784399999</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="3">
         <v>44841</v>
       </c>
@@ -7138,7 +7138,7 @@
         <v>13247124.915599998</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="3">
         <v>44848</v>
       </c>
@@ -7158,7 +7158,7 @@
         <v>12838390.624900002</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="3">
         <v>44855</v>
       </c>
@@ -7178,7 +7178,7 @@
         <v>14083132.5625</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="3">
         <v>44862</v>
       </c>
@@ -7198,7 +7198,7 @@
         <v>15218269.123599999</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="3">
         <v>44869</v>
       </c>
@@ -7218,7 +7218,7 @@
         <v>14217047.302500002</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="3">
         <v>44876</v>
       </c>
@@ -7238,7 +7238,7 @@
         <v>15943489.9849</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="3">
         <v>44883</v>
       </c>
@@ -7258,7 +7258,7 @@
         <v>15723921.3156</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="3">
         <v>44890</v>
       </c>
@@ -7278,7 +7278,7 @@
         <v>16209642.2544</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="3">
         <v>44897</v>
       </c>
@@ -7298,7 +7298,7 @@
         <v>16578740.889999999</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="3">
         <v>44904</v>
       </c>
@@ -7318,7 +7318,7 @@
         <v>15479345.9844</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="3">
         <v>44911</v>
       </c>
@@ -7338,7 +7338,7 @@
         <v>14840677.569600001</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="3">
         <v>44918</v>
       </c>
@@ -7358,7 +7358,7 @@
         <v>14782640.832400002</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="3">
         <v>44925</v>
       </c>
@@ -7396,13 +7396,13 @@
       <selection activeCell="A2" sqref="A2:A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="7.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7419,7 +7419,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>44932</v>
       </c>
@@ -7436,7 +7436,7 @@
         <v>3895.08</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>44939</v>
       </c>
@@ -7453,7 +7453,7 @@
         <v>3999.09</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>44946</v>
       </c>
@@ -7470,7 +7470,7 @@
         <v>3972.61</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>44953</v>
       </c>
@@ -7487,7 +7487,7 @@
         <v>4070.56</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>44960</v>
       </c>
@@ -7504,7 +7504,7 @@
         <v>4136.4799999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>44965</v>
       </c>
